--- a/Assets/06.Table/GuildLevel.xlsx
+++ b/Assets/06.Table/GuildLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732DFAA9-7064-440C-903F-CCEBE5046C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA226FF-5DD5-46AB-84DB-DA225FCAAD29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="GuildLevel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,70 +104,34 @@
     <t>spawnPlus</t>
   </si>
   <si>
-    <t>요괴 추가 소환 +1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요괴 추가 소환 +9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문파 출석 추가보상6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plusReward</t>
-  </si>
-  <si>
-    <t>plusReward</t>
+    <t>누적 요괴 추가 소환 +1</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +2</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +3</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +4</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +5</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +6</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +7</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +8</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +9</t>
+  </si>
+  <si>
+    <t>누적 요괴 추가 소환 +1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -262,7 +226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,6 +237,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -829,7 +796,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -846,7 +813,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -863,7 +830,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -897,7 +864,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -914,7 +881,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -941,41 +908,41 @@
         <v>3000</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>3200</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
         <v>3400</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -986,49 +953,253 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>3600</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>3800</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3">
         <v>4000</v>
       </c>
       <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4">
+        <v>7000</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="4">
+        <v>13000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="4">
+        <v>16000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4">
+        <v>19000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="4">
+        <v>22000</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4">
+        <v>25000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="4">
+        <v>28000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="4">
+        <v>31000</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="E25">
+      <c r="B35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="4">
+        <v>34000</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="4">
+        <v>37000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="4">
+        <v>40000</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>
